--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/01012026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/01012026.xlsx
@@ -1,125 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook" filterPrivacy="true"/>
   <sheets>
-    <sheet sheetId="1" name="Evangelio y Oraciones" state="visible" r:id="rId4"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>TEXTO_MENSAJE</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>56994148421</t>
-  </si>
-  <si>
-    <t>lucesalejandro3@gmail.com</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jueves, 1 de enero de 2026
-*Evangelio del Día*
-Lectura del santo evangelio según san Lucas
-Lucas 2, 16-21 En aquel tiempo, los pastores fueron a toda prisa hacia Belén y encontraron a María, a José y al niño, recostado en el pesebre. Después de verlo, contaron lo que se les había dicho de aquel niño, y cuantos los oían quedaban maravillados. María, por su parte, guardaba todas estas cosas y las meditaba en su corazón. Los pastores se volvieron a sus campos, alabando y glorificando a Dios por todo cuanto habían visto y oído, según lo que se les había anunciado. Cumplidos los ocho días, circuncidaron al niño y le pusieron el nombre de Jesús, aquel mismo que había dicho el ángel, antes de que el niño fuera concebido.
-*Oración de la mañana*
-Querido Jesús, en la quietud de esta nueva mañana, recuerdo tu humilde nacimiento, cómo te acostaste en un pesebre y cómo los pastores, llenos de asombro, contaron tu historia. Ayúdame a descubrirte en las sencillas circunstancias de mi vida diaria y a compartir la buena noticia de tu presencia con los demás.
-Amado Padre, gracias por el amanecer de este nuevo día, por la promesa que trae y por tu amor constante que nunca falla. Como María, deseo guardar y meditar sobre tus bendiciones en mi corazón. Ayúdame a glorificar y alabarte en cada momento, reconociendo las maravillas de tus obras tal como lo hicieron los pastores.
-Espíritu Santo, el que anima y vivifica, guíame hoy en todas mis acciones. Infunde en mí la sabiduría y la paz para que pueda reflexionar y entender tu voluntad en mi vida. Así como el nombre de Jesús fue revelado en su circuncisión, que tu luz revele mi verdadero propósito y me guíe en el camino que debo seguir.
-En la unidad y amor de la Trinidad gloriosa, empiezo este día. Amén.</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>56973223070</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>56971748545</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>56931123918</t>
-  </si>
-  <si>
-    <t>Yume</t>
-  </si>
-  <si>
-    <t>584146711206</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,29 +64,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -481,193 +396,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="100" style="1" customWidth="1"/>
-  </cols>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>NOMBRES</v>
+      </c>
+      <c r="B1" t="str">
+        <v>APELLIDO_PATERNO</v>
+      </c>
+      <c r="C1" t="str">
+        <v>APELLIDO_MATERNO</v>
+      </c>
+      <c r="D1" t="str">
+        <v>CELULAR</v>
+      </c>
+      <c r="E1" t="str">
+        <v>MAIL</v>
+      </c>
+      <c r="F1" t="str">
+        <v>CORREO</v>
+      </c>
+      <c r="G1" t="str">
+        <v>SMS</v>
+      </c>
+      <c r="H1" t="str">
+        <v>WHATSAPP</v>
+      </c>
+      <c r="I1" t="str">
+        <v>TEXTO_MENSAJE</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2" t="str">
+        <v>Alejandro</v>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v>56994148421</v>
+      </c>
+      <c r="E2" t="str">
+        <v>lucesalejandro3@gmail.com</v>
+      </c>
+      <c r="F2" t="str">
+        <v>NO</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="H2" t="str">
+        <v>SI</v>
+      </c>
+      <c r="I2" t="str" xml:space="preserve">
+        <v xml:space="preserve">jueves, 1 de enero de 2026_x000d_
+_x000d_
+*Evangelio del Día*_x000d_
+_x000d_
+_x000d_
+Lectura del santo evangelio según san Lucas_x000d_
+_x000d_
+Lucas 2, 16-21 En aquel tiempo, los pastores fueron a toda prisa hacia Belén y encontraron a María, a José y al niño, recostado en el pesebre. Después de verlo, contaron lo que se les había dicho de aquel niño, y cuantos los oían quedaban maravillados. María, por su parte, guardaba todas estas cosas y las meditaba en su corazón. Los pastores se volvieron a sus campos, alabando y glorificando a Dios por todo cuanto habían visto y oído, según lo que se les había anunciado. Cumplidos los ocho días, circuncidaron al niño y le pusieron el nombre de Jesús, aquel mismo que había dicho el ángel, antes de que el niño fuera concebido._x000d_
+_x000d_
+*Oración de la mañana*_x000d_
+_x000d_
+Querido Jesús, en la quietud de esta nueva mañana, recuerdo tu humilde nacimiento, cómo te acostaste en un pesebre y cómo los pastores, llenos de asombro, contaron tu historia. Ayúdame a descubrirte en las sencillas circunstancias de mi vida diaria y a compartir la buena noticia de tu presencia con los demás._x000d_
+_x000d_
+Amado Padre, gracias por el amanecer de este nuevo día, por la promesa que trae y por tu amor constante que nunca falla. Como María, deseo guardar y meditar sobre tus bendiciones en mi corazón. Ayúdame a glorificar y alabarte en cada momento, reconociendo las maravillas de tus obras tal como lo hicieron los pastores._x000d_
+_x000d_
+Espíritu Santo, el que anima y vivifica, guíame hoy en todas mis acciones. Infunde en mí la sabiduría y la paz para que pueda reflexionar y entender tu voluntad en mi vida. Así como el nombre de Jesús fue revelado en su circuncisión, que tu luz revele mi verdadero propósito y me guíe en el camino que debo seguir._x000d_
+_x000d_
+En la unidad y amor de la Trinidad gloriosa, empiezo este día. Amén.</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/01012026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/01012026.xlsx
@@ -1,41 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook" filterPrivacy="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFC074E-B145-4F75-8A13-3EA4A474A40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Evangelio y Oraciones" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>NOMBRES</t>
+  </si>
+  <si>
+    <t>APELLIDO_PATERNO</t>
+  </si>
+  <si>
+    <t>APELLIDO_MATERNO</t>
+  </si>
+  <si>
+    <t>CELULAR</t>
+  </si>
+  <si>
+    <t>MAIL</t>
+  </si>
+  <si>
+    <t>CORREO</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>WHATSAPP</t>
+  </si>
+  <si>
+    <t>TEXTO_MENSAJE</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>56994148421</t>
+  </si>
+  <si>
+    <t>lucesalejandro3@gmail.com</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>jueves, 1 de enero de 2026_x000D__x000D_
+_x000D__x000D_
+*Evangelio del Día*_x000D__x000D_
+_x000D__x000D_
+_x000D__x000D_
+Lectura del santo evangelio según san Lucas_x000D__x000D_
+_x000D__x000D_
+Lucas 2, 16-21 En aquel tiempo, los pastores fueron a toda prisa hacia Belén y encontraron a María, a José y al niño, recostado en el pesebre. Después de verlo, contaron lo que se les había dicho de aquel niño, y cuantos los oían quedaban maravillados. María, por su parte, guardaba todas estas cosas y las meditaba en su corazón. Los pastores se volvieron a sus campos, alabando y glorificando a Dios por todo cuanto habían visto y oído, según lo que se les había anunciado. Cumplidos los ocho días, circuncidaron al niño y le pusieron el nombre de Jesús, aquel mismo que había dicho el ángel, antes de que el niño fuera concebido._x000D__x000D_
+_x000D__x000D_
+*Oración de la mañana*_x000D__x000D_
+_x000D__x000D_
+Querido Jesús, en la quietud de esta nueva mañana, recuerdo tu humilde nacimiento, cómo te acostaste en un pesebre y cómo los pastores, llenos de asombro, contaron tu historia. Ayúdame a descubrirte en las sencillas circunstancias de mi vida diaria y a compartir la buena noticia de tu presencia con los demás._x000D__x000D_
+_x000D__x000D_
+Amado Padre, gracias por el amanecer de este nuevo día, por la promesa que trae y por tu amor constante que nunca falla. Como María, deseo guardar y meditar sobre tus bendiciones en mi corazón. Ayúdame a glorificar y alabarte en cada momento, reconociendo las maravillas de tus obras tal como lo hicieron los pastores._x000D__x000D_
+_x000D__x000D_
+Espíritu Santo, el que anima y vivifica, guíame hoy en todas mis acciones. Infunde en mí la sabiduría y la paz para que pueda reflexionar y entender tu voluntad en mi vida. Así como el nombre de Jesús fue revelado en su circuncisión, que tu luz revele mi verdadero propósito y me guíe en el camino que debo seguir._x000D__x000D_
+_x000D__x000D_
+En la unidad y amor de la Trinidad gloriosa, empiezo este día. Amén.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +116,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,91 +455,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>NOMBRES</v>
-      </c>
-      <c r="B1" t="str">
-        <v>APELLIDO_PATERNO</v>
-      </c>
-      <c r="C1" t="str">
-        <v>APELLIDO_MATERNO</v>
-      </c>
-      <c r="D1" t="str">
-        <v>CELULAR</v>
-      </c>
-      <c r="E1" t="str">
-        <v>MAIL</v>
-      </c>
-      <c r="F1" t="str">
-        <v>CORREO</v>
-      </c>
-      <c r="G1" t="str">
-        <v>SMS</v>
-      </c>
-      <c r="H1" t="str">
-        <v>WHATSAPP</v>
-      </c>
-      <c r="I1" t="str">
-        <v>TEXTO_MENSAJE</v>
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
-      <c r="A2" t="str">
-        <v>Alejandro</v>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v>56994148421</v>
-      </c>
-      <c r="E2" t="str">
-        <v>lucesalejandro3@gmail.com</v>
-      </c>
-      <c r="F2" t="str">
-        <v>NO</v>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="str">
-        <v>SI</v>
-      </c>
-      <c r="I2" t="str" xml:space="preserve">
-        <v xml:space="preserve">jueves, 1 de enero de 2026_x000d_
-_x000d_
-*Evangelio del Día*_x000d_
-_x000d_
-_x000d_
-Lectura del santo evangelio según san Lucas_x000d_
-_x000d_
-Lucas 2, 16-21 En aquel tiempo, los pastores fueron a toda prisa hacia Belén y encontraron a María, a José y al niño, recostado en el pesebre. Después de verlo, contaron lo que se les había dicho de aquel niño, y cuantos los oían quedaban maravillados. María, por su parte, guardaba todas estas cosas y las meditaba en su corazón. Los pastores se volvieron a sus campos, alabando y glorificando a Dios por todo cuanto habían visto y oído, según lo que se les había anunciado. Cumplidos los ocho días, circuncidaron al niño y le pusieron el nombre de Jesús, aquel mismo que había dicho el ángel, antes de que el niño fuera concebido._x000d_
-_x000d_
-*Oración de la mañana*_x000d_
-_x000d_
-Querido Jesús, en la quietud de esta nueva mañana, recuerdo tu humilde nacimiento, cómo te acostaste en un pesebre y cómo los pastores, llenos de asombro, contaron tu historia. Ayúdame a descubrirte en las sencillas circunstancias de mi vida diaria y a compartir la buena noticia de tu presencia con los demás._x000d_
-_x000d_
-Amado Padre, gracias por el amanecer de este nuevo día, por la promesa que trae y por tu amor constante que nunca falla. Como María, deseo guardar y meditar sobre tus bendiciones en mi corazón. Ayúdame a glorificar y alabarte en cada momento, reconociendo las maravillas de tus obras tal como lo hicieron los pastores._x000d_
-_x000d_
-Espíritu Santo, el que anima y vivifica, guíame hoy en todas mis acciones. Infunde en mí la sabiduría y la paz para que pueda reflexionar y entender tu voluntad en mi vida. Así como el nombre de Jesús fue revelado en su circuncisión, que tu luz revele mi verdadero propósito y me guíe en el camino que debo seguir._x000d_
-_x000d_
-En la unidad y amor de la Trinidad gloriosa, empiezo este día. Amén.</v>
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+    <ignoredError sqref="A1:I1 A2:F2 H2:I2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>